--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ571.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ571.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2533EC4C-7AD7-4853-AAA5-488CC341FD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D154605-A4A1-4FCE-A8C2-31E998A2670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,20 +315,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增;C:異動</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>JcicZ571</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y;N
-N:以下欄位皆為空白</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y;N
 若本次[參與分配債權金額]為0者,本欄位談報為"Y"</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -398,6 +389,16 @@
   </si>
   <si>
     <t>申請日期</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y;N
+N時以下欄位皆為空白</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -969,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -989,10 +990,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -1017,10 +1018,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1083,7 +1084,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="11"/>
@@ -1113,7 +1114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>1</v>
       </c>
@@ -1131,7 +1132,7 @@
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1203,7 +1204,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>54</v>
@@ -1232,7 +1233,7 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
@@ -1253,7 +1254,7 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1337,10 +1338,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>20</v>
@@ -1968,7 +1969,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>55</v>
@@ -1979,7 +1980,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>57</v>
@@ -1990,7 +1991,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>58</v>
@@ -2001,32 +2002,32 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
